--- a/attendance/January 2025/A/attendance.xlsx
+++ b/attendance/January 2025/A/attendance.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sun 19-01-25" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sun 19-01-25 2nd" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sun 19-01-25 3nd" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mon 20-01-25" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1042,4 +1043,205 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>University Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Linika Agarwal</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10900223069</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Misbah Rahaman</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10900223078</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Prakriti Samanta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10900223084</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Priyanshu Roy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10900223089</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rebanta Biswas</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10900223098</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sagnik Kumbhakar</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10900223107</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Samaira Shaw</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10900223110</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sandipan Sasmal</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10900223111</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>